--- a/Austen/ASMR_data.xlsx
+++ b/Austen/ASMR_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amanser\Desktop\Project 2\YouTube-Data-Analytics-and-Visualization\Austen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JF\Documents\WASHUDATAANALYTICS\PROJECT2\YouTube-Data-Analytics-and-Visualization\Austen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCE4C7C-439D-4538-BB9B-DA0CC649347F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162E112-41F7-4F8E-AFA9-DAB814E0502F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" xr2:uid="{A1AA5C74-36DA-4011-A64D-CAC40CC803C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1AA5C74-36DA-4011-A64D-CAC40CC803C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,23 +633,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA450C8-68B2-4E31-AC4F-BCFC820545CD}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.84375" customWidth="1"/>
-    <col min="3" max="4" width="15.53515625" customWidth="1"/>
-    <col min="5" max="5" width="17.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3828125" customWidth="1"/>
-    <col min="8" max="8" width="16.69140625" customWidth="1"/>
-    <col min="11" max="11" width="12.3046875" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -749,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -821,7 +821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -893,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -929,7 +929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1001,13 +1001,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
+      <c r="C11">
+        <v>1998</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
       <c r="E11">
         <v>87</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1167,13 +1173,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
+      <c r="C16">
+        <v>1995</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
       <c r="E16">
         <v>63</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1232,13 +1244,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
+      <c r="C18">
+        <v>1991</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
       <c r="E18">
         <v>201</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1297,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1333,7 +1351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1405,7 +1423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1607,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1816,7 +1834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1881,7 +1899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1982,7 +2000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2054,7 +2072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2120,7 +2138,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2156,7 +2174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2192,7 +2210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2228,7 +2246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2257,7 +2275,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2286,7 +2304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2358,7 +2376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2394,803 +2412,803 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="5:11" x14ac:dyDescent="0.35">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="5:11" x14ac:dyDescent="0.35">
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="5:11" x14ac:dyDescent="0.35">
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="5:11" x14ac:dyDescent="0.35">
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.35">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="5:9" x14ac:dyDescent="0.35">
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="5:9" x14ac:dyDescent="0.35">
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="5:9" x14ac:dyDescent="0.35">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="5:9" x14ac:dyDescent="0.35">
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="5:9" x14ac:dyDescent="0.35">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="5:9" x14ac:dyDescent="0.35">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="5:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="171" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="172" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="173" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="174" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="175" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="176" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="5:10" x14ac:dyDescent="0.35">
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="5:10" x14ac:dyDescent="0.35">
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="5:10" x14ac:dyDescent="0.35">
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="5:10" x14ac:dyDescent="0.35">
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="193" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="194" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="195" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="196" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="197" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="198" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="199" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="200" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="201" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="202" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="203" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="204" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="205" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="206" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="207" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="208" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="209" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="210" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="211" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="212" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="213" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="214" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="215" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="216" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="217" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="218" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="219" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="220" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="221" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="222" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="223" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="224" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
     </row>
-    <row r="225" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="5:11" x14ac:dyDescent="0.35">
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="5:11" x14ac:dyDescent="0.35">
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
     </row>
-    <row r="230" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
     </row>
-    <row r="231" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
     </row>
-    <row r="232" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
     </row>
-    <row r="235" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
     </row>
-    <row r="236" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="5:11" x14ac:dyDescent="0.35">
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
     </row>
-    <row r="238" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
     </row>
-    <row r="239" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="5:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
     </row>
-    <row r="241" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="241" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
     </row>
-    <row r="242" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="242" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
     </row>
-    <row r="243" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="243" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
     </row>
-    <row r="244" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="244" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
     </row>
-    <row r="245" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="245" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
     </row>
-    <row r="246" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="246" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
     </row>
-    <row r="247" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="247" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
     </row>
-    <row r="248" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="248" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="249" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
     </row>
-    <row r="250" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="250" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
     </row>
-    <row r="251" spans="5:8" x14ac:dyDescent="0.4">
+    <row r="251" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>

--- a/Austen/ASMR_data.xlsx
+++ b/Austen/ASMR_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JF\Documents\WASHUDATAANALYTICS\PROJECT2\YouTube-Data-Analytics-and-Visualization\Austen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6162E112-41F7-4F8E-AFA9-DAB814E0502F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2CDDC8-4CAB-4771-8563-138F0070440C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A1AA5C74-36DA-4011-A64D-CAC40CC803C6}"/>
+    <workbookView xWindow="2200" yWindow="1030" windowWidth="14400" windowHeight="7360" xr2:uid="{A1AA5C74-36DA-4011-A64D-CAC40CC803C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="82">
   <si>
     <t>Rank</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>suellASMR</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>twitch</t>
+  </si>
+  <si>
+    <t>facebook</t>
   </si>
 </sst>
 </file>
@@ -631,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA450C8-68B2-4E31-AC4F-BCFC820545CD}">
-  <dimension ref="A1:L251"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -642,14 +654,15 @@
     <col min="1" max="1" width="9.26953125" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.81640625" customWidth="1"/>
     <col min="3" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
     <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -683,8 +696,20 @@
       <c r="K1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -712,8 +737,20 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -748,8 +785,20 @@
       <c r="K3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -784,8 +833,20 @@
       <c r="K4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -820,8 +881,20 @@
       <c r="K5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -856,8 +929,20 @@
       <c r="K6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -892,8 +977,20 @@
       <c r="K7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -928,8 +1025,20 @@
       <c r="K8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -964,8 +1073,20 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1000,8 +1121,20 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1035,8 +1168,20 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1064,8 +1209,20 @@
       <c r="K12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1100,8 +1257,20 @@
       <c r="K13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1136,8 +1305,20 @@
       <c r="K14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1172,8 +1353,20 @@
       <c r="K15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1207,8 +1400,20 @@
       <c r="K16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1243,8 +1448,20 @@
       <c r="K17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1278,8 +1495,20 @@
       <c r="K18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1314,8 +1543,20 @@
       <c r="K19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1350,8 +1591,20 @@
       <c r="K20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1386,8 +1639,20 @@
       <c r="K21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1422,8 +1687,20 @@
       <c r="K22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1458,8 +1735,20 @@
       <c r="K23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1494,8 +1783,20 @@
       <c r="K24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1523,8 +1824,20 @@
       <c r="K25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1552,8 +1865,20 @@
       <c r="K26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1588,8 +1913,20 @@
       <c r="K27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1624,8 +1961,20 @@
       <c r="K28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1660,8 +2009,20 @@
       <c r="K29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1696,8 +2057,20 @@
       <c r="K30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1732,8 +2105,20 @@
       <c r="K31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1768,8 +2153,20 @@
       <c r="K32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1804,8 +2201,20 @@
       <c r="K33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1833,8 +2242,20 @@
       <c r="K34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1869,8 +2290,20 @@
       <c r="K35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1898,8 +2331,20 @@
       <c r="K36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1934,8 +2379,20 @@
       <c r="K37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1963,8 +2420,20 @@
       <c r="K38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1999,8 +2468,20 @@
       <c r="K39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2035,8 +2516,20 @@
       <c r="K40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2071,8 +2564,20 @@
       <c r="K41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2100,8 +2605,20 @@
       <c r="K42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2136,9 +2653,20 @@
       <c r="K43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2173,8 +2701,20 @@
       <c r="K44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2209,8 +2749,20 @@
       <c r="K45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2245,8 +2797,20 @@
       <c r="K46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2274,8 +2838,20 @@
       <c r="K47" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2303,8 +2879,20 @@
       <c r="K48" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2339,8 +2927,20 @@
       <c r="K49" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2375,8 +2975,20 @@
       <c r="K50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2411,56 +3023,68 @@
       <c r="K51" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
